--- a/biology/Botanique/Jardin_d'horticulture_de_Chartres/Jardin_d'horticulture_de_Chartres.xlsx
+++ b/biology/Botanique/Jardin_d'horticulture_de_Chartres/Jardin_d'horticulture_de_Chartres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27horticulture_de_Chartres</t>
+          <t>Jardin_d'horticulture_de_Chartres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin d'horticulture de Chartres est créé en 1856 par la Société d'horticulture d'Eure-et-Loir (SHEL) à Chartres, préfecture du département français d'Eure-et-Loir en région Centre-Val de Loire. D'une surface de 1,7 hectare, ce jardin de type anglais, situé près de l'Eure, est classé parmi les deux cents plus beaux jardins de France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin d'horticulture de Chartres est créé en 1856 par la Société d'horticulture d'Eure-et-Loir (SHEL) à Chartres, préfecture du département français d'Eure-et-Loir en région Centre-Val de Loire. D'une surface de 1,7 hectare, ce jardin de type anglais, situé près de l'Eure, est classé parmi les deux cents plus beaux jardins de France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27horticulture_de_Chartres</t>
+          <t>Jardin_d'horticulture_de_Chartres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le viaduc de la ligne de Paris à Chartres par Gallardon, construite à partir de 1907 et aujourd'hui désaffectée, surplombe la propriété le long de sa limite nord.
 Le jardin est placé sur le parcours de la Véloscénie Paris - Le Mont-Saint-Michel, à l'entrée de Chartres en provenance d'Épernon ;</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_d%27horticulture_de_Chartres</t>
+          <t>Jardin_d'horticulture_de_Chartres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales dates clés se résument ainsi :
 L'ancienne propriété « Beaurepaire » appartenait depuis 592 ans aux hospices de Chartres. En 1886, ces derniers s'installent rue du Docteur-Maunoury et vendent la propriété à la SHEL ;
-En 1898, le président de la Société d'horticulture est Émile Labiche[2] ;
+En 1898, le président de la Société d'horticulture est Émile Labiche ;
 En 1944, le jardin est bombardé, ce qui nécessite de nouvelles plantations après 1945 ;
 Depuis 1954, la ville de Chartres assure, par convention, l’entretien et le fleurissement des lieux.
-Il est à noter qu'en 1910 est installée dans le jardin une statue en marbre de Jean-Baptiste Hugues de 1893, la Muse de la Source. Mutilée, elle rejoint en 2011 par mesure de précaution les réserves du musée des Beaux-Arts de Chartres, son socle, figurant le rebord d'une fontaine ornée de strigiles et de putti, restant en place[3].
+Il est à noter qu'en 1910 est installée dans le jardin une statue en marbre de Jean-Baptiste Hugues de 1893, la Muse de la Source. Mutilée, elle rejoint en 2011 par mesure de précaution les réserves du musée des Beaux-Arts de Chartres, son socle, figurant le rebord d'une fontaine ornée de strigiles et de putti, restant en place.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_d%27horticulture_de_Chartres</t>
+          <t>Jardin_d'horticulture_de_Chartres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,16 +594,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin présente de nombreux arbres multicentenaires et compte environ cinq cents variétés de plantes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin présente de nombreux arbres multicentenaires et compte environ cinq cents variétés de plantes.
 Plusieurs arbres sont particulièrement remarquables :
-un arbre aux quarante écus (ginkgo biloba), circonférence à 1,30 m : 5,20 m[5], hauteur 23,5 m[6] (n° 3) ;
-un couple de cyprès chauves, dont le plus gros a une circonférence à 1,30 m de 5,03 m[5] et une hauteur de 29,5 m[6] (n° 18) ;
+un arbre aux quarante écus (ginkgo biloba), circonférence à 1,30 m : 5,20 m, hauteur 23,5 m (n° 3) ;
+un couple de cyprès chauves, dont le plus gros a une circonférence à 1,30 m de 5,03 m et une hauteur de 29,5 m (n° 18) ;
 un désespoir du singe (n° 24) ;
 un magnolia à grandes fleurs qui se trouve à l'origine au sud-est des États-Unis (n° 53) ;
-deux platanes communs, dont le plus gros a une circonférence de 4,05 m et une hauteur de 43 m[6], soit l'arbre le plus haut du jardin (n° 69) ;
-un séquoia géant d'une circonférence de 4,56 m[6] (n° 82).
+deux platanes communs, dont le plus gros a une circonférence de 4,05 m et une hauteur de 43 m, soit l'arbre le plus haut du jardin (n° 69) ;
+un séquoia géant d'une circonférence de 4,56 m (n° 82).
 Le jardin accueille également une aire de jeux pour les enfants et de nombreux bancs pour les visiteurs.
 			N° 3Ginkgo biloba.
 			N° 3Fruits et feuilles sous le ginkgo biloba.
